--- a/文档/项目组内文档/进度控制表.xlsx
+++ b/文档/项目组内文档/进度控制表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>项目名称</t>
   </si>
@@ -180,6 +180,14 @@
       </rPr>
       <t>PT</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运用ui组件，导入图片时出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改功能没有完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +241,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -329,27 +343,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -357,6 +350,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -660,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -678,109 +693,109 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
@@ -801,14 +816,14 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
@@ -860,9 +875,15 @@
       <c r="C15" s="3">
         <v>42950</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
+      <c r="D15" s="4">
+        <v>42950</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -887,8 +908,8 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
@@ -902,9 +923,15 @@
       <c r="C18" s="3">
         <v>42952</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="D18" s="23">
+        <v>42953</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
@@ -948,13 +975,13 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+    <row r="22" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
@@ -966,9 +993,15 @@
       <c r="C23" s="3">
         <v>42950</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="D23" s="4">
+        <v>42950</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
@@ -980,9 +1013,15 @@
       <c r="C24" s="3">
         <v>42952</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="D24" s="23">
+        <v>42952</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
@@ -998,13 +1037,13 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+    <row r="26" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
@@ -1016,9 +1055,15 @@
       <c r="C27" s="3">
         <v>42952</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="D27" s="4">
+        <v>42952</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">

--- a/文档/项目组内文档/进度控制表.xlsx
+++ b/文档/项目组内文档/进度控制表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>项目名称</t>
   </si>
@@ -188,6 +188,22 @@
   </si>
   <si>
     <t>修改功能没有完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱晓燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱晓燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概要设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,6 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -371,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -673,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H30"/>
+  <dimension ref="A2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -693,109 +710,109 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
@@ -816,14 +833,14 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
@@ -923,7 +940,7 @@
       <c r="C18" s="3">
         <v>42952</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="16">
         <v>42953</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -943,9 +960,15 @@
       <c r="C19" s="3">
         <v>42954</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="D19" s="4">
+        <v>42954</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
@@ -1013,7 +1036,7 @@
       <c r="C24" s="3">
         <v>42952</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="16">
         <v>42952</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1031,75 +1054,115 @@
         <v>30</v>
       </c>
       <c r="C25" s="3">
+        <v>42955</v>
+      </c>
+      <c r="D25" s="24">
         <v>42954</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3">
+        <v>42954</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3">
+        <v>42956</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C29" s="3">
         <v>42952</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D29" s="4">
         <v>42952</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C30" s="3">
         <v>42954</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="D30" s="4">
+        <v>42954</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C31" s="3">
         <v>42956</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
